--- a/Dat/ArticleCodingFile.xlsx
+++ b/Dat/ArticleCodingFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songh95/Dropbox/GitHub/When-does-garbage-stink/Dat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songh95/Dropbox/GitHub/PC_In_validations_we_trust/Dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39E7B3-C8FE-7447-AD04-3B1A8C1BF2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F7B390-A4AB-1A4C-A980-DC620873F456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46080" yWindow="780" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,21 +44,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Jin, is this info necessary?
-	-Fabienne
-Maybe relevant but not crucial I think (yet at this point -- maybe it turn out to be important later on, so I would just code the info where available, does not hurt to have one I guess)
-	-Hyunjin Song</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="N177" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
@@ -3202,20 +3187,20 @@
   </sheetPr>
   <dimension ref="A1:AM196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G161" sqref="G161:G196"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
     <col min="6" max="6" width="48.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" customWidth="1"/>
     <col min="24" max="24" width="22.1640625" customWidth="1"/>
     <col min="28" max="28" width="10.5" customWidth="1"/>
@@ -3361,7 +3346,7 @@
       <c r="AC2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="18" t="s">
         <v>40</v>
       </c>
       <c r="AE2" s="18" t="s">
